--- a/data/trans_orig/P1804_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>27696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18663</v>
+        <v>18459</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38755</v>
+        <v>39478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06602763204929937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0444930241680989</v>
+        <v>0.04400650389024387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09239140026173538</v>
+        <v>0.09411543034113148</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -763,19 +763,19 @@
         <v>33356</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24118</v>
+        <v>23220</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45892</v>
+        <v>45512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0842836973130565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06094218579360676</v>
+        <v>0.05867175147483864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1159610036119493</v>
+        <v>0.1150014638064844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -784,19 +784,19 @@
         <v>61052</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47976</v>
+        <v>46380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78588</v>
+        <v>77019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07489020518860874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05885049699355941</v>
+        <v>0.05689229753759698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09640109834542225</v>
+        <v>0.09447647146554897</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>391767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380708</v>
+        <v>379985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>400800</v>
+        <v>401004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9339723679507006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9076085997382645</v>
+        <v>0.9058845696588678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9555069758319011</v>
+        <v>0.9559934961097557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -834,19 +834,19 @@
         <v>362399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349863</v>
+        <v>350243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>371637</v>
+        <v>372535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9157163026869435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8840389963880507</v>
+        <v>0.8849985361935157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9390578142063932</v>
+        <v>0.9413282485251614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>738</v>
@@ -855,19 +855,19 @@
         <v>754166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736630</v>
+        <v>738199</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767242</v>
+        <v>768838</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9251097948113912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9035989016545773</v>
+        <v>0.9055235285344517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9411495030064397</v>
+        <v>0.9431077024624033</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>28256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19109</v>
+        <v>20003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42734</v>
+        <v>40847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04785159367023954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03236144454476722</v>
+        <v>0.03387559609727753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07237000433461645</v>
+        <v>0.06917404726598173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -980,19 +980,19 @@
         <v>58872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45130</v>
+        <v>45930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74162</v>
+        <v>74852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1044669251580842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08008195765328831</v>
+        <v>0.08150293683432962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1315992370601095</v>
+        <v>0.1328234306021369</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1001,19 +1001,19 @@
         <v>87128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71241</v>
+        <v>71105</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106109</v>
+        <v>105485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07549813448463624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06173180213883528</v>
+        <v>0.06161439241765583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09194582129735021</v>
+        <v>0.09140473158802356</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>562240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>547762</v>
+        <v>549649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>571387</v>
+        <v>570493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9521484063297605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9276299956653843</v>
+        <v>0.9308259527340184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9676385554552328</v>
+        <v>0.9661244039027225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>520</v>
@@ -1051,19 +1051,19 @@
         <v>504672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489382</v>
+        <v>488692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>518414</v>
+        <v>517614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8955330748419158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8684007629398909</v>
+        <v>0.8671765693978629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9199180423467118</v>
+        <v>0.9184970631656703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1059</v>
@@ -1072,19 +1072,19 @@
         <v>1066912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1047931</v>
+        <v>1048555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1082799</v>
+        <v>1082935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9245018655153637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9080541787026494</v>
+        <v>0.9085952684119764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9382681978611647</v>
+        <v>0.9383856075823441</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>25823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17269</v>
+        <v>16413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37596</v>
+        <v>36792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03859412796306579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02580931078829403</v>
+        <v>0.02453019583906828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05618907548522261</v>
+        <v>0.05498685292858229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1197,19 +1197,19 @@
         <v>59550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44397</v>
+        <v>46381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75801</v>
+        <v>76954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09003769101314185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06712683681106081</v>
+        <v>0.07012768217264649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1146094375479822</v>
+        <v>0.1163520689700477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1218,19 +1218,19 @@
         <v>85373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69697</v>
+        <v>67895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105409</v>
+        <v>104440</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06416684669415086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05238469298811371</v>
+        <v>0.05103067301236241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0792264686089249</v>
+        <v>0.07849770614943505</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>643274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>631501</v>
+        <v>632305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651828</v>
+        <v>652684</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9614058720369342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438109245147774</v>
+        <v>0.9450131470714174</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9741906892117058</v>
+        <v>0.9754698041609317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>608</v>
@@ -1268,19 +1268,19 @@
         <v>601836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585585</v>
+        <v>584432</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616989</v>
+        <v>615005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9099623089868581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8853905624520181</v>
+        <v>0.8836479310299524</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9328731631889393</v>
+        <v>0.9298723178273537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -1289,19 +1289,19 @@
         <v>1245110</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1225074</v>
+        <v>1226043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1260786</v>
+        <v>1262588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9358331533058492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9207735313910752</v>
+        <v>0.921502293850565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9476153070118865</v>
+        <v>0.9489693269876378</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>33452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22707</v>
+        <v>23261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45393</v>
+        <v>46882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05178013069727679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03514738682800844</v>
+        <v>0.0360049368113193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0702628231230889</v>
+        <v>0.07256735437139354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1414,19 +1414,19 @@
         <v>40434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30395</v>
+        <v>29219</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55266</v>
+        <v>54837</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0622942235964592</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04682754237055807</v>
+        <v>0.04501687552191721</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08514494891174082</v>
+        <v>0.08448506674945726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1435,19 +1435,19 @@
         <v>73886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57536</v>
+        <v>58302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91685</v>
+        <v>91615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05704947071131861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04442526453874453</v>
+        <v>0.04501671282582466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07079206753808565</v>
+        <v>0.07073796253418212</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>612596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>600655</v>
+        <v>599166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>623341</v>
+        <v>622787</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9482198693027232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9297371768769112</v>
+        <v>0.9274326456286072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9648526131719919</v>
+        <v>0.9639950631886808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -1485,19 +1485,19 @@
         <v>608643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>593811</v>
+        <v>594240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>618682</v>
+        <v>619858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9377057764035408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9148550510882592</v>
+        <v>0.9155149332505429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9531724576294419</v>
+        <v>0.954983124478083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1115</v>
@@ -1506,19 +1506,19 @@
         <v>1221239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1203440</v>
+        <v>1203510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1237589</v>
+        <v>1236823</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9429505292886814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.929207932461914</v>
+        <v>0.9292620374658179</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9555747354612554</v>
+        <v>0.9549832871741754</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>38026</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26480</v>
+        <v>26082</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50321</v>
+        <v>50687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07956645197340086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05540719081092333</v>
+        <v>0.05457397263654243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1052927333745702</v>
+        <v>0.10605751104312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1631,19 +1631,19 @@
         <v>53625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38880</v>
+        <v>40023</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69285</v>
+        <v>71014</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1079297989432868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07825257392694786</v>
+        <v>0.08055342610958495</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1394493214203233</v>
+        <v>0.1429291350960136</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -1652,19 +1652,19 @@
         <v>91651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74304</v>
+        <v>74976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112498</v>
+        <v>113644</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09402354851033801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07622782550940656</v>
+        <v>0.07691696465088028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1154100183979915</v>
+        <v>0.1165853907019833</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>439892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427597</v>
+        <v>427231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>451438</v>
+        <v>451836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9204335480265992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8947072666254299</v>
+        <v>0.89394248895688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9445928091890766</v>
+        <v>0.9454260273634575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -1702,19 +1702,19 @@
         <v>443224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427564</v>
+        <v>425835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>457969</v>
+        <v>456826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8920702010567132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8605506785796774</v>
+        <v>0.8570708649039872</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9217474260730524</v>
+        <v>0.9194465738904152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>777</v>
@@ -1723,19 +1723,19 @@
         <v>883116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>862269</v>
+        <v>861123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>900463</v>
+        <v>899791</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.905976451489662</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8845899816020084</v>
+        <v>0.8834146092980167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9237721744905935</v>
+        <v>0.9230830353491197</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>37267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26076</v>
+        <v>27131</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49652</v>
+        <v>51296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1114690488126093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07799434333684759</v>
+        <v>0.08115184328125624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1485122910594208</v>
+        <v>0.1534289756077727</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1848,19 +1848,19 @@
         <v>43523</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31728</v>
+        <v>32835</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56974</v>
+        <v>59016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1152119526407629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08398966761772643</v>
+        <v>0.08691938462110164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1508189152340803</v>
+        <v>0.156226382124074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -1869,19 +1869,19 @@
         <v>80790</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65257</v>
+        <v>64441</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100099</v>
+        <v>99707</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.113454644553607</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09164072420633344</v>
+        <v>0.090495786453734</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1405708194747699</v>
+        <v>0.1400195614521522</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>297063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284678</v>
+        <v>283034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308254</v>
+        <v>307199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8885309511873907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8514877089405791</v>
+        <v>0.8465710243922275</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9220056566631523</v>
+        <v>0.9188481567187444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>314</v>
@@ -1919,19 +1919,19 @@
         <v>334239</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320788</v>
+        <v>318746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>346034</v>
+        <v>344927</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8847880473592371</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8491810847659196</v>
+        <v>0.8437736178759262</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9160103323822735</v>
+        <v>0.9130806153788984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>603</v>
@@ -1940,19 +1940,19 @@
         <v>631302</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>611993</v>
+        <v>612385</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>646835</v>
+        <v>647651</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.886545355446393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8594291805252301</v>
+        <v>0.8599804385478478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9083592757936666</v>
+        <v>0.909504213546266</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>23168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15686</v>
+        <v>15844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32947</v>
+        <v>32836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09014788600123126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06103358615123964</v>
+        <v>0.06164975349059706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1281990046327974</v>
+        <v>0.1277658768972818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2065,19 +2065,19 @@
         <v>62551</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46228</v>
+        <v>46859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80901</v>
+        <v>80916</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1563114268648977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1155209306771439</v>
+        <v>0.1170968003144983</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2021668186834586</v>
+        <v>0.2022052015837504</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -2086,19 +2086,19 @@
         <v>85719</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67984</v>
+        <v>67298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105780</v>
+        <v>106846</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1304368809237283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1034506489019519</v>
+        <v>0.1024061583761747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.160963090493095</v>
+        <v>0.1625856193781727</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>233830</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224051</v>
+        <v>224162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241312</v>
+        <v>241154</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9098521139987688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8718009953672028</v>
+        <v>0.8722341231027183</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9389664138487603</v>
+        <v>0.9383502465094032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -2136,19 +2136,19 @@
         <v>337618</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319268</v>
+        <v>319253</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353941</v>
+        <v>353310</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8436885731351023</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7978331813165417</v>
+        <v>0.7977947984162499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8844790693228561</v>
+        <v>0.8829031996855016</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>532</v>
@@ -2157,19 +2157,19 @@
         <v>571448</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>551387</v>
+        <v>550321</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>589183</v>
+        <v>589869</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8695631190762717</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8390369095069055</v>
+        <v>0.8374143806218273</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8965493510980487</v>
+        <v>0.8975938416238253</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>213690</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06295446880426407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>317</v>
@@ -2282,19 +2282,19 @@
         <v>351909</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09928202700589622</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>524</v>
@@ -2303,19 +2303,19 @@
         <v>565599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08151140115277844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3180660</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3148964</v>
+        <v>3152934</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3207727</v>
+        <v>3209642</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.937045531195736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9277076470319889</v>
+        <v>0.9288769924271285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9450195603144901</v>
+        <v>0.9455836503373054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3021</v>
@@ -2353,19 +2353,19 @@
         <v>3192633</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3154632</v>
+        <v>3154123</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3230091</v>
+        <v>3227642</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9007179729941037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8899969370447128</v>
+        <v>0.8898533302482462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9112859548323168</v>
+        <v>0.9105948443246213</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6045</v>
@@ -2374,19 +2374,19 @@
         <v>6373293</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6327206</v>
+        <v>6322294</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6423169</v>
+        <v>6418283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9184885988472216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9118467263678957</v>
+        <v>0.9111388963603505</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.925676466930857</v>
+        <v>0.9249723019637583</v>
       </c>
     </row>
     <row r="27">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20634</v>
+        <v>19565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01036868091409665</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05059798322730561</v>
+        <v>0.04797804481030431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2742,19 +2742,19 @@
         <v>30440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16687</v>
+        <v>17947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46438</v>
+        <v>50424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08505511183663908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04662624194566708</v>
+        <v>0.05014797301171071</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1297562614966158</v>
+        <v>0.1408930810862248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2763,19 +2763,19 @@
         <v>34668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20369</v>
+        <v>21091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56435</v>
+        <v>56375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04527785307804798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02660207701383073</v>
+        <v>0.02754559133440981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07370601167855134</v>
+        <v>0.07362727441860495</v>
       </c>
     </row>
     <row r="5">
@@ -2792,7 +2792,7 @@
         <v>403565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>387159</v>
+        <v>388228</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -2801,7 +2801,7 @@
         <v>0.9896313190859035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9494020167726944</v>
+        <v>0.9520219551896958</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2813,19 +2813,19 @@
         <v>327446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311448</v>
+        <v>307462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341199</v>
+        <v>339939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9149448881633609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8702437385033844</v>
+        <v>0.8591069189137724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9533737580543329</v>
+        <v>0.9498520269882886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -2834,19 +2834,19 @@
         <v>731011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>709244</v>
+        <v>709304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745310</v>
+        <v>744588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9547221469219521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9262939883214489</v>
+        <v>0.9263727255813949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9733979229861695</v>
+        <v>0.9724544086655902</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>36885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22256</v>
+        <v>20898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57819</v>
+        <v>56189</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07734498783455945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04666846019114965</v>
+        <v>0.04382053976164534</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1212412926828706</v>
+        <v>0.1178229923883284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -2959,19 +2959,19 @@
         <v>55478</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42366</v>
+        <v>42038</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71639</v>
+        <v>73835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1109193052648749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08470349452902112</v>
+        <v>0.08404770212612822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1432311217615684</v>
+        <v>0.147621878746235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -2980,19 +2980,19 @@
         <v>92363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72219</v>
+        <v>71837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117478</v>
+        <v>119553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09453206147534092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07391462572476029</v>
+        <v>0.0735235048759902</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1202363734127076</v>
+        <v>0.1223605197524871</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>440005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419071</v>
+        <v>420701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>454634</v>
+        <v>455992</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9226550121654405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8787587073171295</v>
+        <v>0.8821770076116719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9533315398088503</v>
+        <v>0.9561794602383547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>412</v>
@@ -3030,19 +3030,19 @@
         <v>444688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428527</v>
+        <v>426331</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>457800</v>
+        <v>458128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8890806947351251</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8567688782384317</v>
+        <v>0.852378121253765</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.915296505470979</v>
+        <v>0.9159522978738718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -3051,19 +3051,19 @@
         <v>884693</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>859578</v>
+        <v>857503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>904837</v>
+        <v>905219</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.905467938524659</v>
+        <v>0.9054679385246591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.879763626587292</v>
+        <v>0.8776394802475127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9260853742752394</v>
+        <v>0.9264764951240098</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>29260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19016</v>
+        <v>18355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44026</v>
+        <v>43012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0471294860769935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03062905181438863</v>
+        <v>0.02956517499045213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07091442582677911</v>
+        <v>0.06928039419147917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3176,19 +3176,19 @@
         <v>49667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38626</v>
+        <v>39018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62057</v>
+        <v>63197</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07983302836643863</v>
+        <v>0.07983302836643864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06208572007291762</v>
+        <v>0.06271581537754153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09974833972884542</v>
+        <v>0.1015807320403353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -3197,19 +3197,19 @@
         <v>78927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64661</v>
+        <v>63942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99702</v>
+        <v>97249</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06349839110984078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0520207949444274</v>
+        <v>0.05144249741160419</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08021268173723264</v>
+        <v>0.07823902681458735</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>591577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>576811</v>
+        <v>577825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>601821</v>
+        <v>602482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9528705139230066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9290855741732198</v>
+        <v>0.9307196058085198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9693709481856111</v>
+        <v>0.9704348250095471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>782</v>
@@ -3247,19 +3247,19 @@
         <v>572472</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>560082</v>
+        <v>558942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>583513</v>
+        <v>583121</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9201669716335613</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9002516602711546</v>
+        <v>0.8984192679596649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9379142799270822</v>
+        <v>0.9372841846224584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1306</v>
@@ -3268,19 +3268,19 @@
         <v>1164049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1143274</v>
+        <v>1145727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1178315</v>
+        <v>1179034</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9365016088901593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9197873182627675</v>
+        <v>0.9217609731854127</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9479792050555728</v>
+        <v>0.9485575025883958</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>49279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35116</v>
+        <v>35544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66522</v>
+        <v>67063</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07033629177089151</v>
+        <v>0.0703362917708915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05012127075155603</v>
+        <v>0.05073280037995392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09494773746397604</v>
+        <v>0.09571994141084135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -3393,19 +3393,19 @@
         <v>54501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43147</v>
+        <v>43690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65735</v>
+        <v>66567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07396083800643269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05855358487823186</v>
+        <v>0.05929065200188129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08920652721390988</v>
+        <v>0.09033520887270756</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -3414,19 +3414,19 @@
         <v>103780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85978</v>
+        <v>85176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127640</v>
+        <v>124112</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07219428980209394</v>
+        <v>0.07219428980209396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05981068289535171</v>
+        <v>0.05925285900484136</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08879298940216976</v>
+        <v>0.08633884727894986</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>651338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634095</v>
+        <v>633554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>665501</v>
+        <v>665073</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9296637082291086</v>
+        <v>0.9296637082291085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.905052262536024</v>
+        <v>0.9042800585891587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9498787292484436</v>
+        <v>0.9492671996200459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1062</v>
@@ -3464,19 +3464,19 @@
         <v>682385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>671151</v>
+        <v>670319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693739</v>
+        <v>693196</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9260391619935673</v>
+        <v>0.9260391619935675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9107934727860902</v>
+        <v>0.9096647911272925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414464151217682</v>
+        <v>0.9407093479981187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1690</v>
@@ -3485,19 +3485,19 @@
         <v>1333724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1309864</v>
+        <v>1313392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1351526</v>
+        <v>1352328</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9278057101979059</v>
+        <v>0.9278057101979061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9112070105978305</v>
+        <v>0.9136611527210501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9401893171046487</v>
+        <v>0.9407471409951585</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>43862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32858</v>
+        <v>32940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58679</v>
+        <v>57862</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07198155560425153</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05392319870114014</v>
+        <v>0.05405718287547734</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09629868833418782</v>
+        <v>0.09495727847810695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -3610,19 +3610,19 @@
         <v>51359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41073</v>
+        <v>42035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62566</v>
+        <v>62831</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08452274999284716</v>
+        <v>0.08452274999284719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06759483915586337</v>
+        <v>0.06917872705053768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1029675608661801</v>
+        <v>0.1034027189380581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -3631,19 +3631,19 @@
         <v>95220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79624</v>
+        <v>79211</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114130</v>
+        <v>112024</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07824331663225553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06542737364185433</v>
+        <v>0.06508844804889283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09378170382679601</v>
+        <v>0.09205056571773326</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>565484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>550667</v>
+        <v>551484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>576488</v>
+        <v>576406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9280184443957484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9037013116658121</v>
+        <v>0.905042721521893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9460768012988597</v>
+        <v>0.9459428171245226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>915</v>
@@ -3681,19 +3681,19 @@
         <v>556273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>545066</v>
+        <v>544801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>566559</v>
+        <v>565597</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9154772500071527</v>
+        <v>0.915477250007153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8970324391338198</v>
+        <v>0.896597281061942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9324051608441367</v>
+        <v>0.9308212729494623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1531</v>
@@ -3702,19 +3702,19 @@
         <v>1121758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1102848</v>
+        <v>1104954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1137354</v>
+        <v>1137767</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9217566833677445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.906218296173204</v>
+        <v>0.9079494342822669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9345726263581458</v>
+        <v>0.934911551951107</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>33460</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25103</v>
+        <v>24279</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43897</v>
+        <v>43100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08219443977984457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06166515418502605</v>
+        <v>0.05964197062206913</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1078335397889313</v>
+        <v>0.1058761831221037</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -3827,19 +3827,19 @@
         <v>35935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29018</v>
+        <v>27242</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45924</v>
+        <v>44663</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08182617537964153</v>
+        <v>0.0818261753796415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06607599918032568</v>
+        <v>0.06203121222095417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1045699137614932</v>
+        <v>0.1016986076173922</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -3848,19 +3848,19 @@
         <v>69395</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57741</v>
+        <v>58348</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82743</v>
+        <v>82156</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08200332598013185</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06823169960415917</v>
+        <v>0.06894884258806754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09777625070033147</v>
+        <v>0.09708239788882055</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>373620</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363183</v>
+        <v>363980</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>381977</v>
+        <v>382801</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9178055602201554</v>
+        <v>0.9178055602201555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8921664602110692</v>
+        <v>0.8941238168778964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.938334845814974</v>
+        <v>0.940358029377931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>756</v>
@@ -3898,19 +3898,19 @@
         <v>403231</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>393242</v>
+        <v>394503</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>410148</v>
+        <v>411924</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9181738246203586</v>
+        <v>0.9181738246203585</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8954300862385061</v>
+        <v>0.8983013923826079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9339240008196737</v>
+        <v>0.9379687877790458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1275</v>
@@ -3919,19 +3919,19 @@
         <v>776851</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>763503</v>
+        <v>764090</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>788505</v>
+        <v>787898</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9179966740198681</v>
+        <v>0.9179966740198682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9022237492996686</v>
+        <v>0.9029176021111794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.931768300395841</v>
+        <v>0.9310511574119325</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>21594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15024</v>
+        <v>15213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29773</v>
+        <v>28847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06961294888322316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04843501021224719</v>
+        <v>0.04904251790737364</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0959812225842708</v>
+        <v>0.09299644024198413</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -4044,19 +4044,19 @@
         <v>40453</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31106</v>
+        <v>32116</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50766</v>
+        <v>50520</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08717996361735152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06703727434417847</v>
+        <v>0.06921365188854806</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1094059010941037</v>
+        <v>0.1088763829331582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -4065,19 +4065,19 @@
         <v>62046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51383</v>
+        <v>51036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76432</v>
+        <v>74662</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08014149786593074</v>
+        <v>0.08014149786593072</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06636759373289068</v>
+        <v>0.06592010401308969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0987227255596307</v>
+        <v>0.09643609426623691</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>288604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>280425</v>
+        <v>281351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>295174</v>
+        <v>294985</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9303870511167767</v>
+        <v>0.9303870511167769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9040187774157291</v>
+        <v>0.9070035597580157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9515649897877528</v>
+        <v>0.9509574820926263</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>803</v>
@@ -4115,19 +4115,19 @@
         <v>423560</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>413247</v>
+        <v>413493</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>432907</v>
+        <v>431897</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9128200363826485</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8905940989058962</v>
+        <v>0.8911236170668418</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9329627256558215</v>
+        <v>0.9307863481114519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1227</v>
@@ -4136,19 +4136,19 @@
         <v>712165</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>697779</v>
+        <v>699549</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>722828</v>
+        <v>723175</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9198585021340693</v>
+        <v>0.9198585021340692</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9012772744403692</v>
+        <v>0.9035639057337632</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9336324062671092</v>
+        <v>0.9340798959869103</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>218567</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>439</v>
@@ -4261,19 +4261,19 @@
         <v>317833</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08525810957350392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>647</v>
@@ -4282,19 +4282,19 @@
         <v>536400</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3314195</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3273967</v>
+        <v>3279242</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3343392</v>
+        <v>3345668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9381313841113261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.926744377048708</v>
+        <v>0.9282374766633222</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9463959825864963</v>
+        <v>0.94704019644036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4919</v>
@@ -4332,19 +4332,19 @@
         <v>3410056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3379230</v>
+        <v>3376111</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3443158</v>
+        <v>3438803</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.914741890426496</v>
+        <v>0.9147418904264961</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9064728867101308</v>
+        <v>0.9056361457137617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9236213012085441</v>
+        <v>0.9224532498724132</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8087</v>
@@ -4353,19 +4353,19 @@
         <v>6724251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6675340</v>
+        <v>6676383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6767459</v>
+        <v>6769927</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9261223464667537</v>
+        <v>0.9261223464667536</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9193858515870593</v>
+        <v>0.9195295980483472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9320732579825775</v>
+        <v>0.932413161500468</v>
       </c>
     </row>
     <row r="27">
